--- a/SeleniumDemo/src/main/resources/datafiles/TestData.xlsx
+++ b/SeleniumDemo/src/main/resources/datafiles/TestData.xlsx
@@ -3,23 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Autotest\SeleniumDemo\src\main\java\Autotest\datafiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Autotest\SeleniumDemo\src\main\resources\datafiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9803CF93-9EA4-44CF-9AC3-248B8ACDA0DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B3E709-C029-4C92-BBB5-E3C4AE35834F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{39484383-D105-4779-AD39-FA215D002B4C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{39484383-D105-4779-AD39-FA215D002B4C}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCaseSuiteTest" sheetId="1" r:id="rId1"/>
     <sheet name="TestCaseSuiteTest_02" sheetId="2" r:id="rId2"/>
     <sheet name="TestCaseSuiteTest_03" sheetId="3" r:id="rId3"/>
+    <sheet name="TestCaseSuiteTest_06" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="161">
   <si>
     <t>Username</t>
   </si>
@@ -366,13 +367,168 @@
   <si>
     <t>1185</t>
   </si>
+  <si>
+    <t>Element Name</t>
+  </si>
+  <si>
+    <t>TXT_CUSTOMER_NAME</t>
+  </si>
+  <si>
+    <t>TXT_ADDRESS</t>
+  </si>
+  <si>
+    <t>TXT_CITY</t>
+  </si>
+  <si>
+    <t>TXT_STATE</t>
+  </si>
+  <si>
+    <t>TXT_PIN</t>
+  </si>
+  <si>
+    <t>Locator Value</t>
+  </si>
+  <si>
+    <t>TXT_TELEPHONE</t>
+  </si>
+  <si>
+    <t>TXT_EMAIL</t>
+  </si>
+  <si>
+    <t>LBL_CUSTOMER_NAME_ERROR_MESSAGE</t>
+  </si>
+  <si>
+    <t>Locator Type</t>
+  </si>
+  <si>
+    <t>//input[@name='name']</t>
+  </si>
+  <si>
+    <t>//label[@id='message']</t>
+  </si>
+  <si>
+    <t>//textarea[@name='addr']</t>
+  </si>
+  <si>
+    <t>//input[@name='city']</t>
+  </si>
+  <si>
+    <t>//input[@name='state']</t>
+  </si>
+  <si>
+    <t>xpath</t>
+  </si>
+  <si>
+    <t>//input[@name='telephoneno']</t>
+  </si>
+  <si>
+    <t>//input[@name='pinno']</t>
+  </si>
+  <si>
+    <t>//input[@name='emailid']</t>
+  </si>
+  <si>
+    <t>LBL_ADDRESS_ERROR_MESSAGE</t>
+  </si>
+  <si>
+    <t>LBL_CITY_ERROR_MESSAGE</t>
+  </si>
+  <si>
+    <t>LBL_STATE_ERROR_MESSAGE</t>
+  </si>
+  <si>
+    <t>LBL_PIN_ERROR_MESSAGE</t>
+  </si>
+  <si>
+    <t>LBL_TELEPHONE_ERROR_MESSAGE</t>
+  </si>
+  <si>
+    <t>LBL_EMAIL_ERROR_MESSAGE</t>
+  </si>
+  <si>
+    <t>LBL_PASSWORD_ERROR_MESSAGE</t>
+  </si>
+  <si>
+    <t>TXT_PASSWORD</t>
+  </si>
+  <si>
+    <t>//input[@name='password']</t>
+  </si>
+  <si>
+    <t>LBL_DATE_OF_BIRTH_ERROR_MESSAGE</t>
+  </si>
+  <si>
+    <t>NEW_CUSTOMER_BTN_RESET</t>
+  </si>
+  <si>
+    <t>CHK_MALE</t>
+  </si>
+  <si>
+    <t>CHK_FEMALE</t>
+  </si>
+  <si>
+    <t>NEW_CUSTOMER_BTN_SUBMIT</t>
+  </si>
+  <si>
+    <t>LNK_CONTINUE</t>
+  </si>
+  <si>
+    <t>LNK_HOME</t>
+  </si>
+  <si>
+    <t>TXT_CUSTOMER_ID</t>
+  </si>
+  <si>
+    <t>//label[@id='message3']</t>
+  </si>
+  <si>
+    <t>//label[@id='message4']</t>
+  </si>
+  <si>
+    <t>//label[@id='message5']</t>
+  </si>
+  <si>
+    <t>//label[@id='message6']</t>
+  </si>
+  <si>
+    <t>//label[@id='message7']</t>
+  </si>
+  <si>
+    <t>//label[@id='message9']</t>
+  </si>
+  <si>
+    <t>//label[@id='message18']</t>
+  </si>
+  <si>
+    <t>//label[@id='message24']</t>
+  </si>
+  <si>
+    <t>//input[@name='res']</t>
+  </si>
+  <si>
+    <t>//input[@value='m']</t>
+  </si>
+  <si>
+    <t>//input[@value='f']</t>
+  </si>
+  <si>
+    <t>//input[@name='sub']</t>
+  </si>
+  <si>
+    <t>//a[normalize-space()='Continue']</t>
+  </si>
+  <si>
+    <t>//a[normalize-space()='Home']</t>
+  </si>
+  <si>
+    <t>//td[normalize-space()='Customer ID']/following-sibling::td</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -418,6 +574,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -446,7 +610,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -487,6 +651,13 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -832,26 +1003,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="12.77734375"/>
-    <col min="2" max="2" customWidth="true" style="1" width="11.88671875"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="16.33203125"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="35.109375"/>
-    <col min="5" max="6" style="1" width="8.88671875"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="9.5546875"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="34.0"/>
-    <col min="9" max="9" style="1" width="8.88671875"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="39.5546875"/>
-    <col min="11" max="11" style="1" width="8.88671875"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="34.33203125"/>
-    <col min="13" max="13" style="1" width="8.88671875"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="1" width="30.77734375"/>
-    <col min="15" max="15" customWidth="true" style="1" width="15.109375"/>
-    <col min="16" max="16" customWidth="true" style="1" width="21.88671875"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="6.44140625"/>
-    <col min="18" max="18" customWidth="true" style="1" width="23.5546875"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="1" width="20.33203125"/>
-    <col min="20" max="20" customWidth="true" style="1" width="12.77734375"/>
-    <col min="21" max="16384" style="1" width="8.88671875"/>
+    <col min="1" max="1" width="12.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.88671875" style="1"/>
+    <col min="7" max="7" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="1"/>
+    <col min="10" max="10" width="39.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="1"/>
+    <col min="12" max="12" width="34.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.88671875" style="1"/>
+    <col min="14" max="14" width="30.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="21.88671875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.5546875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.77734375" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -1110,23 +1281,23 @@
   <dimension ref="B2:N84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" style="11" width="8.88671875"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="11" width="11.109375"/>
-    <col min="3" max="3" customWidth="true" style="11" width="19.5546875"/>
-    <col min="4" max="4" customWidth="true" style="11" width="35.109375"/>
-    <col min="5" max="5" customWidth="true" style="11" width="16.21875"/>
-    <col min="6" max="6" customWidth="true" style="11" width="36.109375"/>
-    <col min="7" max="7" customWidth="true" style="11" width="13.44140625"/>
-    <col min="8" max="9" style="11" width="8.88671875"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="11" width="12.109375"/>
-    <col min="11" max="11" customWidth="true" style="11" width="11.0"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="11" width="10.88671875"/>
-    <col min="13" max="16384" style="11" width="8.88671875"/>
+    <col min="1" max="1" width="8.88671875" style="11"/>
+    <col min="2" max="2" width="11.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="35.109375" style="11" customWidth="1"/>
+    <col min="5" max="5" width="16.21875" style="11" customWidth="1"/>
+    <col min="6" max="6" width="36.109375" style="11" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" style="11" customWidth="1"/>
+    <col min="8" max="9" width="8.88671875" style="11"/>
+    <col min="10" max="10" width="12.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" style="11" customWidth="1"/>
+    <col min="12" max="12" width="10.88671875" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="11"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7">
@@ -1137,8 +1308,8 @@
         <v>107</v>
       </c>
     </row>
-    <row r="3">
-      <c r="B3" t="s" s="11">
+    <row r="3" spans="2:7">
+      <c r="B3" s="11" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2108,18 +2279,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83B5307F-C949-400C-9DED-2518997EB0CB}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="9.5546875"/>
-    <col min="3" max="3" customWidth="true" width="19.5546875"/>
-    <col min="4" max="4" customWidth="true" width="12.21875"/>
-    <col min="5" max="5" customWidth="true" width="19.33203125"/>
-    <col min="6" max="6" customWidth="true" width="25.0"/>
-    <col min="7" max="7" customWidth="true" width="16.33203125"/>
+    <col min="2" max="2" width="9.5546875" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" customWidth="1"/>
+    <col min="6" max="6" width="25" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.6">
@@ -30170,4 +30341,300 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4E19955-53E2-454B-9FC3-6A411020774D}">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="299" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="41.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.21875" customWidth="1"/>
+    <col min="3" max="3" width="41.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="28.8">
+      <c r="A10" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="G10" s="18"/>
+    </row>
+    <row r="11" spans="1:7" ht="28.8">
+      <c r="A11" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="28.8">
+      <c r="A12" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="28.8">
+      <c r="A13" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="28.8">
+      <c r="A14" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="28.8">
+      <c r="A15" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="28.8">
+      <c r="A16" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="28.8">
+      <c r="A17" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="28.8">
+      <c r="A18" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="28.8">
+      <c r="A19" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="28.8">
+      <c r="A22" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="28.8">
+      <c r="A25" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>